--- a/00_Admin/Literature Tracker.xlsx
+++ b/00_Admin/Literature Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Climate-Migration-Bank-Fragility\00_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8834077E-EFEE-4135-8751-59A6734B187A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105CA390-2292-4CF6-B692-53CAC7538D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Author</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>What They Missed</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
 </sst>
 </file>
@@ -65,12 +71,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -141,13 +153,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,7 +445,7 @@
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
@@ -461,10 +473,18 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1234</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>

--- a/00_Admin/Literature Tracker.xlsx
+++ b/00_Admin/Literature Tracker.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Climate-Migration-Bank-Fragility\00_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105CA390-2292-4CF6-B692-53CAC7538D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48357F4-8B34-4659-AF7E-F04B545F8B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Author</t>
   </si>
@@ -39,17 +50,212 @@
     <t>What They Missed</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>Data Used</t>
+  </si>
+  <si>
+    <t>Perez-Sindón, X.S.; Chen, T.-H.K.; Prishchepov, A.V.</t>
+  </si>
+  <si>
+    <t>Are night-time lights a good proxy of economic activity in rural areas in middle and low-income countries? Examining the empirical evidence from Colombia. (Abstract, p.1)</t>
+  </si>
+  <si>
+    <t>DMSP-OLS (1992-2012), VIIRS (2012-2019 annual composites), harmonized DMSP-VIIRS (2011-2018), Global Urban Footprint mask; RDP (Regional Domestic Product) from DANE Colombia (2011-2018); municipalities (n=1122). Cross-sectional OLS regressions and multilevel models. (p.2-6)</t>
+  </si>
+  <si>
+    <t>No migration analysis or proxies (e.g., no night lights for population movement post-disaster). No banking/financial stability metrics (e.g., deposits, liquidity shocks). Country-level (Colombia municipalities), no India/district granularity. DMSP/VIIRS for RDP/economic growth only—no climate shocks or causal chain to finance. No VIIRS for real-time migration shocks (uses lagged RDP). ​</t>
+  </si>
+  <si>
+    <t>Yang, C.; Yu, B.; Chen, Z.; Song, W.; Zhou, Y.; Li, X.; Wu, J.</t>
+  </si>
+  <si>
+    <t>Relationship between spatial (artificial surface ratio) and socioeconomic (night light radiance) urban development processes? (Title/Abstract, p.1)</t>
+  </si>
+  <si>
+    <t>Globeland30-2010 (30m land cover for artificial surfaces); NPP-VIIRS NTL monthly composite April 2012 (500m, radiance nW/cm²/sr); prefecture-level cities China (n=330). Exponential SSUDC model fitted via nonlinear least-squares. (p.4-7)</t>
+  </si>
+  <si>
+    <t>Purely spatial-socioeconomic curve—no migration, climate disasters, or banking linkages. China prefectures only—no India districts or global applicability. Static 2010-2012 snapshot—no dynamic shocks (e.g., disasters → migration → deposits). VIIRS/land cover for urban status only—no financial instability mechanisms like shadow runs. ​</t>
+  </si>
+  <si>
+    <t>Levin, N.; Zhang, Q.</t>
+  </si>
+  <si>
+    <t>What factors control VIIRS nighttime light levels from densely populated areas globally? (Title/Abstract, p.366)</t>
+  </si>
+  <si>
+    <t>VIIRS DNB monthly composites Jan/July 2014 (cloud-free mosaics); Landscan 2012 population (density &gt;1500/km², min 10km²/country, n=4153 areas); MODIS MCD12Q1 urban %, MOD13C2 NDVI, MOD10CM snow; OSM roads; GDP/capita/density; gas flares. GLM models. (p.367-370)</t>
+  </si>
+  <si>
+    <t>Descriptive factors (GDP, roads, NDVI, snow)—no causal mechanisms like climate → migration → banking. Global metro areas—no India district focus or VIIRS for migration post-disaster. No banking data (deposits/Z-scores). Cross-sectional 2014 only—no time-series shocks or 30-day liquidity windows. Identifies snow/veg effects but ignores disaster-driven flows. ​</t>
+  </si>
+  <si>
+    <t>Uesugi, J.; Ono, H.; McKay, A.</t>
+  </si>
+  <si>
+    <t>Does higher bank branch density reduce bank run risk during financial stress? (Inferred from title/Abstract)</t>
+  </si>
+  <si>
+    <t>Bank branch locations/density; bank run/deposit withdrawal data (period unspecified, likely Japan/global); financial stress events. (Abstract/Intro)</t>
+  </si>
+  <si>
+    <t>No climate disasters as shocks. No migration proxies (VIIRS/DMSP). No India districts. Branches vs. deposits only—no full liquidity/shadow run mechanism via migration. No causal chain climate→migration→banking. ​</t>
+  </si>
+  <si>
+    <t>Li, X.; Zhou, Y.</t>
+  </si>
+  <si>
+    <t>Can nighttime lights + population images forecast China's GDP at pixel level? (Title/Abstract)</t>
+  </si>
+  <si>
+    <t>VIIRS/DMSP nighttime lights time-series; population images/grids; China pixel-level GDP (1992-2012?). Machine learning/panel regressions. China national. (Abstract)</t>
+  </si>
+  <si>
+    <t>GDP forecasting only—no migration/banking. China pixels—no India districts. No climate shocks. Lights for GDP, not population flows post-disaster. No finance instability (deposits). ​</t>
+  </si>
+  <si>
+    <t>Miranda-Agrippino, S.; Rey, H.</t>
+  </si>
+  <si>
+    <t>How do global financial cycles affect risk premiums? (Title/Abstract)</t>
+  </si>
+  <si>
+    <t>Global financial data (VIX, capital flows); risk premiums/bond yields; macro panels (international). VAR/IV models. (Abstract)</t>
+  </si>
+  <si>
+    <t>Macro finance cycles—no micro district banks/deposits. No climate/migration. Global—no India. No night lights/real-time shocks. Liquidity via globals, not local migration-driven runs.</t>
+  </si>
+  <si>
+    <t>Cortés, D.; Ketterling, N.; Prieto, J.</t>
+  </si>
+  <si>
+    <t>How are banks impacted by and mediate economic consequences of natural disasters/climate shocks? (Review scope, Abstract)</t>
+  </si>
+  <si>
+    <t>Review of studies on disasters/banks (credit, lending, stability); global/US/Europe cases—no specific datasets listed. (Intro/Abstract)</t>
+  </si>
+  <si>
+    <t>Review only—no causal migration proxy (VIIRS lights). No India districts. No deposit/liquidity focus via migration shocks. No full chain: climate→migration→banking instability. Silent on real-time VIIRS district flows. ​</t>
+  </si>
+  <si>
+    <t>Aiken, E.; Bellue, S.; Karlan, D.; Udry, C.; Blumenstock, J.</t>
+  </si>
+  <si>
+    <t>Can satellite lights measure monthly district economic activity in developing countries? (India focus, Title/Abstract)</t>
+  </si>
+  <si>
+    <t>Night lights (DMSP/VIIRS?); India districts monthly (2014-2019?); employment/consumption surveys. High-freq nowcasting models. (Abstract)</t>
+  </si>
+  <si>
+    <t>Economic activity nowcasting—no banking deposits/runs. Lights for GDP/employment, not migration post-disaster. India districts ✓ but no climate shocks → migration → finance chain. No VIIRS-specific migration proxy. ​</t>
+  </si>
+  <si>
+    <t>Donald, J.; Man, A.; Matsumoto, T.</t>
+  </si>
+  <si>
+    <t>Can night lights measure quarterly economic growth? (Title/Abstract)</t>
+  </si>
+  <si>
+    <t>VIIRS/DMSP night lights quarterly composites; GDP/national accounts (global/multi-country); growth regressions. (Abstract/Methods)</t>
+  </si>
+  <si>
+    <t>Quarterly GDP growth—no district banks/migration. Global—no India focus. Lights for aggregate growth, ignores disaster-driven migration/liquidity shocks. No deposit instability mechanism.</t>
+  </si>
+  <si>
+    <t>Bhandari, L. Roychowdhury, K.</t>
+  </si>
+  <si>
+    <t>Do DMSP-OLS night lights associate with GDP at India district level?</t>
+  </si>
+  <si>
+    <t>DMSP-OLS stable lights 2008 (F16 satellite, sum of lights per district, gas flares masked), district GDP 2008 from Indicus Analytics (CSO method, 593 districts, sectoral: primary/secondary/tertiary), population, dummies (metro/sub-metro/capital/large city/snow). Log-log multivariate OLS regressions.</t>
+  </si>
+  <si>
+    <t>Pre-VIIRS DMSP only (coarse 1km, no radiance calibration beyond empirical inter-calibration)—cannot proxy real-time migration post-disaster. No climate shocks as identification. No banking/deposits/liquidity (focus aggregate/sectoral GDP). Non-linearities in metros/agri noted but no causal chain climate→migration→bank instability.​</t>
+  </si>
+  <si>
+    <t>Ananya K., Nishali B., Jagatheswari G.</t>
+  </si>
+  <si>
+    <t>Does nightlight intensity proxy GSDP in India states, esp. Tamil Nadu?</t>
+  </si>
+  <si>
+    <t>VIIRS Night Lights (SHRUG 2.0 Pakora, 2012-2023, adjusted for externalities), RBI Handbook GSDP (states 2022, Tamil Nadu 2017-2023 growth). OLS regressions (R²=0.967 TN, 0.774 India 2022).</t>
+  </si>
+  <si>
+    <t>State-level aggregate (not districts)—masks sub-district heterogeneity in migration/bank shocks. No climate disasters/migration proxies via lights. No banking data (focus GSDP growth only). VIIRS for luminosity-GSDP correlation, ignores shadow runs/liquidity via disaster flows.</t>
+  </si>
+  <si>
+    <t>Zhu, K.</t>
+  </si>
+  <si>
+    <t>How do adaptation (mangroves, migration, renovations) shape climate risk responses?</t>
+  </si>
+  <si>
+    <t>Ch.2: Cyclone winds, VIIRS night lights, mangroves (India coast); Ch.3: Household data (US East Coast hurricanes); Ch.4: 2008 Iowa flood, Data Axle residential; Ch.5: Miami-Dade parcels (Irma flood, renovations). IV/RD/DiD models.</t>
+  </si>
+  <si>
+    <t>No India district banks/deposits/liquidity shocks. VIIRS/mangroves for cyclone mitigation/econ activity only—no migration-to-finance chain. US focus (coastal/inland floods)—no India granular shocks. No shadow runs via VIIRS migration.​</t>
+  </si>
+  <si>
+    <t>Chen, X. Nordhaus, W.D.</t>
+  </si>
+  <si>
+    <t>Do VIIRS lights estimate US state/MSA GDP (cross-section vs time-series)?</t>
+  </si>
+  <si>
+    <t>VIIRS annual/monthly composites (2014-2016, stray-light corrected), BEA GDP (states/MSAs). Robust regressions (log-log); R²=0.61-0.89 cross-section, 0.02-0.20 growth.</t>
+  </si>
+  <si>
+    <t>US aggregate/urban GDP proxy—no district migration/banking. No climate shocks. Lights strong cross-section/urban, weak growth—no causal disaster-migration-deposits.​</t>
+  </si>
+  <si>
+    <t>Singhal, A. Sahu, S. Chattopadhyay, S. Mukherjee, A. Bhanja, S.N.</t>
+  </si>
+  <si>
+    <t>Does NTL measure India district inequality, Kuznets relation to development?</t>
+  </si>
+  <si>
+    <t>DMSP-OLS NTL (1992-2013, 7010 blocks), GDDP (districts 1999-2008), pop; SPI/QGI. OLS/Gini; quadratic Kuznets (R²~0.35-0.40).</t>
+  </si>
+  <si>
+    <t>What is global economic impact of climate change (empirical)?</t>
+  </si>
+  <si>
+    <t>Likely temp shocks, GDP grids/panels (cross-country/time-series), possibly satellites (NTL?). Panel regressions on growth/damages.</t>
+  </si>
+  <si>
+    <t>Global/country aggregate—no India district banks/deposits/liquidity. No VIIRS migration proxy post-disaster. No shadow runs/finance instability chain via climate shocks.​</t>
+  </si>
+  <si>
+    <t>How do global cities adapt to flood risk (panel evidence)?</t>
+  </si>
+  <si>
+    <t>City-level panel (flood exposure, adaptation, outcomes like GDP/NTL?). Likely regressions on risk/econ metrics. Global focus.</t>
+  </si>
+  <si>
+    <t>Hsiang, Solomon</t>
+  </si>
+  <si>
+    <t>Gandhi, Sahil; Kahn, Mathew E.; Kochhar, Rajat; Lall, Somik; Tandel, Vaidehi</t>
+  </si>
+  <si>
+    <t>DMSP pre-VIIRS; inequality/GDP proxy—no climate/banking. No real-time shocks/migration flows to shadow runs. State/district aggregate—no causal chain.</t>
+  </si>
+  <si>
+    <t>Global/city aggregate—no India district banks/deposits/shocks. No VIIRS migration proxy. No shadow runs/shadow banking via climate flows.​</t>
+  </si>
+  <si>
+    <t>None of the 16 papers connect Climate Disasters → VIIRS Migration → District Bank Deposits → Shadow Run liquidity stress in India. This study establishes the first causal evidence of this mechanism.</t>
+  </si>
+  <si>
+    <t>Novelty Gap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +276,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -85,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -138,21 +350,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -161,6 +535,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,57 +858,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E4"/>
+  <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="22.265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.06640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="1"/>
+    <col min="5" max="5" width="46" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.19921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="44.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1234</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="5" spans="2:6" ht="83.25" x14ac:dyDescent="0.45">
+      <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C5" s="17">
+        <v>2021</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="69.400000000000006" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="83.25" x14ac:dyDescent="0.45">
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
+      <c r="B13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2023</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="83.25" x14ac:dyDescent="0.45">
+      <c r="B14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2011</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="69.400000000000006" x14ac:dyDescent="0.45">
+      <c r="B16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2025</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2019</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
+      <c r="B18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2020</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
+      <c r="B19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2025</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="55.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="14">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/00_Admin/Literature Tracker.xlsx
+++ b/00_Admin/Literature Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Climate-Migration-Bank-Fragility\00_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48357F4-8B34-4659-AF7E-F04B545F8B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A371306-DE26-4404-881F-6C5897FDDC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,7 +283,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +296,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -522,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,31 +548,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,6 +570,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -875,15 +878,15 @@
   <sheetData>
     <row r="1" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" ht="44.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -904,24 +907,24 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="83.25" x14ac:dyDescent="0.45">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="13">
         <v>2021</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="69.400000000000006" x14ac:dyDescent="0.45">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="6">
@@ -933,12 +936,12 @@
       <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="83.25" x14ac:dyDescent="0.45">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="6">
@@ -950,12 +953,12 @@
       <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="6">
@@ -967,12 +970,12 @@
       <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6">
@@ -984,12 +987,12 @@
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="6">
@@ -1001,12 +1004,12 @@
       <c r="E10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="6">
@@ -1018,12 +1021,12 @@
       <c r="E11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="6">
@@ -1035,12 +1038,12 @@
       <c r="E12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="6">
@@ -1052,12 +1055,12 @@
       <c r="E13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="83.25" x14ac:dyDescent="0.45">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="6">
@@ -1069,12 +1072,12 @@
       <c r="E14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="6">
@@ -1086,12 +1089,12 @@
       <c r="E15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="69.400000000000006" x14ac:dyDescent="0.45">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="6">
@@ -1103,12 +1106,12 @@
       <c r="E16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
+      <c r="B17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="6">
@@ -1120,12 +1123,12 @@
       <c r="E17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="6">
@@ -1137,12 +1140,12 @@
       <c r="E18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="6">
@@ -1154,24 +1157,24 @@
       <c r="E19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="55.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="10">
         <v>2022</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="11" t="s">
         <v>68</v>
       </c>
     </row>

--- a/00_Admin/Literature Tracker.xlsx
+++ b/00_Admin/Literature Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Climate-Migration-Bank-Fragility\00_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A371306-DE26-4404-881F-6C5897FDDC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AF2E84-B0E6-4308-BD15-811243B6292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,10 +245,10 @@
     <t>Global/city aggregate—no India district banks/deposits/shocks. No VIIRS migration proxy. No shadow runs/shadow banking via climate flows.​</t>
   </si>
   <si>
-    <t>None of the 16 papers connect Climate Disasters → VIIRS Migration → District Bank Deposits → Shadow Run liquidity stress in India. This study establishes the first causal evidence of this mechanism.</t>
-  </si>
-  <si>
     <t>Novelty Gap</t>
+  </si>
+  <si>
+    <t>None of the 16 papers connect Climate Disasters → VIIRS Migration → District Bank Deposits → Shadow Run liquidity stress in India. This study aims to provide causal evidence consistent with this mechanism.</t>
   </si>
 </sst>
 </file>
@@ -863,7 +863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
   <cols>
@@ -879,10 +881,10 @@
     <row r="1" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" ht="44.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>

--- a/00_Admin/Literature Tracker.xlsx
+++ b/00_Admin/Literature Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Climate-Migration-Bank-Fragility\00_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AF2E84-B0E6-4308-BD15-811243B6292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C53A97-B3BE-4494-899C-4DA10E5F78B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Author</t>
   </si>
@@ -249,6 +249,54 @@
   </si>
   <si>
     <t>None of the 16 papers connect Climate Disasters → VIIRS Migration → District Bank Deposits → Shadow Run liquidity stress in India. This study aims to provide causal evidence consistent with this mechanism.</t>
+  </si>
+  <si>
+    <t>Colmer, J.</t>
+  </si>
+  <si>
+    <t>How do temperature shocks reallocate labor across sectors, and what does that imply for industrial production in India? ​</t>
+  </si>
+  <si>
+    <t>India-focused empirical analysis linking temperature variation to labor reallocation across sectors and industrial production outcomes, using high-frequency weather/temperature measures matched to economic/production data. ​</t>
+  </si>
+  <si>
+    <t>Does not model climate disasters (e.g., floods) as discrete shocks; no VIIRS-based migration proxy; no district-quarter banking outcomes (deposits/liquidity stress); does not test the full climate → migration → deposits (shadow run) mechanism. ​</t>
+  </si>
+  <si>
+    <t>Cruz, J.-L.; Rossi-Hansberg, E.</t>
+  </si>
+  <si>
+    <t>How does global warming reshape the spatial distribution of economic activity through migration, trade, and local adaptation in a spatial equilibrium framework? ​</t>
+  </si>
+  <si>
+    <t>Quantitative spatial equilibrium model of global warming (economic geography) allowing endogenous spatial reallocation (including migration and trade) in response to climate-driven changes. ​</t>
+  </si>
+  <si>
+    <t>Not India-district specific; not event-based (floods/cyclones) identification; no direct use of VIIRS night lights; no banking variables (district deposits/withdrawals) or shadow-run style liquidity mechanisms. ​</t>
+  </si>
+  <si>
+    <t>Cattaneo, C.; Peri, G.</t>
+  </si>
+  <si>
+    <t>How do rising temperatures affect migration patterns (including rural–urban moves) and how does the response differ by development level? ​</t>
+  </si>
+  <si>
+    <t>Cross-country panel evidence (115 countries, 1960–2000) linking temperature/warming trends to migration outcomes; article history shows “Available online 31 May 2016” and journal placement in Journal of Development Economics 122 (2016) 127–146. ​</t>
+  </si>
+  <si>
+    <t>No subnational (district) identification for India; no satellite migration proxy (VIIRS/DMSP) or post-disaster displacement measurement; no financial-sector outcomes (bank deposits, liquidity, run dynamics). ​</t>
+  </si>
+  <si>
+    <t>Carleton, T.; Jina, A.; Delgado, M.; Greenstone, M.; Houser, T.; Hsiang, S.; Hultgren, A.; Kopp, R.E.; McCusker, K.E.; Nath, I.; et al.</t>
+  </si>
+  <si>
+    <t>How large are mortality damages from climate change once adaptation benefits and adaptation costs are accounted for, and what does this imply for welfare valuation? ​</t>
+  </si>
+  <si>
+    <t>Subnational mortality + temperature exposure across 40 countries, estimated via a temperature–mortality dose-response and valuation framework accounting for adaptation costs/benefits; screenshot indicates online publication “Published: 21 April 2022” and issue placement in QJE 137(4) (November 2022). ​</t>
+  </si>
+  <si>
+    <t>Focuses on mortality/welfare valuation rather than migration measured via VIIRS; does not link climate shocks to district banking outcomes (deposits) or short-horizon liquidity stress; not designed to identify deposit-flight/shadow-run mechanisms.</t>
   </si>
 </sst>
 </file>
@@ -528,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -541,9 +589,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -861,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F21"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
@@ -880,15 +925,15 @@
   <sheetData>
     <row r="1" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" ht="44.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.5">
@@ -909,279 +954,344 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="83.25" x14ac:dyDescent="0.45">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>2021</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="69.400000000000006" x14ac:dyDescent="0.45">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2019</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="83.25" x14ac:dyDescent="0.45">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>2017</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>2024</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>2019</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>2020</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>2023</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>2021</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>2023</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="83.25" x14ac:dyDescent="0.45">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>2011</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>2024</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="69.400000000000006" x14ac:dyDescent="0.45">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>2025</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>2019</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>2020</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="41.65" x14ac:dyDescent="0.45">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>2025</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="55.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="2:6" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="B20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="5">
         <v>2022</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="F21" s="5"/>
+    <row r="21" spans="2:6" ht="69.400000000000006" x14ac:dyDescent="0.45">
+      <c r="B21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="69.400000000000006" x14ac:dyDescent="0.45">
+      <c r="B22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2024</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="69.400000000000006" x14ac:dyDescent="0.45">
+      <c r="B23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2016</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="83.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
